--- a/Config/환경설정.xlsx
+++ b/Config/환경설정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ABC-Framework\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssi03\Desktop\ABC-Framework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5890DE6E-C5ED-44C3-ABCE-64B876437287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF16C2B-A3CF-49CF-8211-C9E4702F2156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="3" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B825019-C3D4-469E-9211-25A0DD617B16}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
@@ -905,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE905B2-7711-462C-837C-8AA631EC470A}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Config/환경설정.xlsx
+++ b/Config/환경설정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssi03\Desktop\ABC-Framework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF16C2B-A3CF-49CF-8211-C9E4702F2156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA5B89B-C13C-4A6A-8082-55702F223D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Framework" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>메일_발신자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,10 +332,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssi0316128@gmail.com</t>
-  </si>
-  <si>
-    <t>ssi03161@naver.com</t>
+    <t>에러메일_발신자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일_발신자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 메일을 송신하는 발신자의 이름
+-입력값: 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 실행중 에러 발생시 에러메일의 발신자의 이름
+-입력값: 문자열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +488,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B825019-C3D4-469E-9211-25A0DD617B16}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -903,10 +935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE905B2-7711-462C-837C-8AA631EC470A}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,161 +1001,182 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
+      <c r="A6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
+      <c r="C13" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{4276A9FE-5079-4BBC-A2F7-91A3F0A0B6AD}"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{4276A9FE-5079-4BBC-A2F7-91A3F0A0B6AD}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{2F5B34C1-0577-4D5E-8B44-941A1266C463}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
 </worksheet>
 </file>